--- a/iPOS.FrontEnd/iPOS.Core/Template/SYS/SYS_GroupUser_FileSelect.xlsx
+++ b/iPOS.FrontEnd/iPOS.Core/Template/SYS/SYS_GroupUser_FileSelect.xlsx
@@ -451,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -516,126 +516,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
